--- a/AP70_TestData_EnterAdjustmentandCancel_21C.xlsx
+++ b/AP70_TestData_EnterAdjustmentandCancel_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2D33A-6F88-41E4-A585-513AD4E50C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF86D4-3FFE-4A6B-8B2C-8404F65D59F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>UserName</t>
   </si>
@@ -631,33 +631,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="U2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="15" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="15"/>
-    <col min="8" max="8" width="16.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.453125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.77734375" style="15" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="15"/>
+    <col min="8" max="8" width="16.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="15" style="15" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="34.6328125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.7265625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="15.81640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.453125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.26953125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.7265625" style="15"/>
-    <col min="21" max="21" width="34.6328125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="26.81640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.54296875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="8.7265625" style="15"/>
+    <col min="13" max="13" width="8.21875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="34.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="15.77734375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.21875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.77734375" style="15"/>
+    <col min="21" max="21" width="34.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="26.77734375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.5546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -725,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>2</v>
       </c>
@@ -775,23 +774,14 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
       <c r="S2" s="16"/>
-      <c r="U2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{63AFB759-1CE8-486F-80E4-41C0A4C2B09A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -803,17 +793,17 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -830,7 +820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -844,9 +834,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -890,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
